--- a/output/InfoAdicional.xlsx
+++ b/output/InfoAdicional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>Requisites</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>tarifas de liquidación del impuesto de industria y comercio</t>
+  </si>
+  <si>
+    <t>atención</t>
+  </si>
+  <si>
+    <t>participa</t>
+  </si>
+  <si>
+    <t>noticias</t>
+  </si>
+  <si>
+    <t>normatividad</t>
   </si>
   <si>
     <t>-</t>
@@ -530,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -569,10 +581,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -583,10 +595,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -597,10 +609,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -611,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -625,10 +637,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -639,10 +651,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -653,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -667,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -681,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -695,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -709,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -723,10 +735,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -737,10 +749,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -751,10 +763,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -765,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -779,10 +791,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -793,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -807,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -821,10 +833,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -835,10 +847,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -849,10 +861,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -863,10 +875,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -877,10 +889,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -891,10 +903,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -905,10 +917,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -919,10 +931,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -933,10 +945,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -947,10 +959,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -961,10 +973,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -975,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -989,10 +1001,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1003,10 +1015,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1017,10 +1029,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1031,10 +1043,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1045,10 +1057,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1059,10 +1071,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1073,10 +1085,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1087,10 +1099,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1101,10 +1113,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1115,10 +1127,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1129,10 +1141,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1143,10 +1155,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1157,10 +1169,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1171,10 +1183,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1185,10 +1197,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1199,10 +1211,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1213,10 +1225,66 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
         <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
